--- a/InitialCaseData.xlsx
+++ b/InitialCaseData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drewa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1904643312396bbe/Documents/GitHub/Senior-Capstone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B5E840-D361-49DB-9069-F2CA2B56D4A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{86B5E840-D361-49DB-9069-F2CA2B56D4A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F6EB92A-B3FB-41A7-9935-61B7C0D59F92}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D7A73CC4-F4CB-4B17-BB7D-595E2FCE1A46}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{D7A73CC4-F4CB-4B17-BB7D-595E2FCE1A46}"/>
   </bookViews>
   <sheets>
     <sheet name="Load" sheetId="1" r:id="rId1"/>
@@ -916,13 +916,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A769FFB8-64F1-4DDF-A600-9583BD71A669}">
   <dimension ref="A1:N120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -966,7 +966,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -6070,7 +6070,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -6114,7 +6114,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>132</v>
       </c>
@@ -6176,16 +6176,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69153BD3-52BE-49FC-BB25-A8EE33AA4E21}">
   <dimension ref="A1:V56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="22" max="22" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>133</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>6</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>8</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>12</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>15</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>18</v>
       </c>
@@ -6797,7 +6797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>19</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>24</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>25</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>26</v>
       </c>
@@ -7069,7 +7069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>27</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>31</v>
       </c>
@@ -7205,7 +7205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>32</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>34</v>
       </c>
@@ -7341,7 +7341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>36</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>40</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>42</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>46</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>49</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>54</v>
       </c>
@@ -7749,7 +7749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>55</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>56</v>
       </c>
@@ -7885,7 +7885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>59</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>61</v>
       </c>
@@ -8021,7 +8021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>62</v>
       </c>
@@ -8089,7 +8089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>65</v>
       </c>
@@ -8157,7 +8157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>66</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>69</v>
       </c>
@@ -8293,7 +8293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>70</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>72</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>73</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>74</v>
       </c>
@@ -8565,7 +8565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>76</v>
       </c>
@@ -8633,7 +8633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>77</v>
       </c>
@@ -8701,7 +8701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>80</v>
       </c>
@@ -8769,7 +8769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>85</v>
       </c>
@@ -8837,7 +8837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>87</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>89</v>
       </c>
@@ -8973,7 +8973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>90</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>91</v>
       </c>
@@ -9109,7 +9109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>92</v>
       </c>
@@ -9177,7 +9177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>99</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>100</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>103</v>
       </c>
@@ -9381,7 +9381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>104</v>
       </c>
@@ -9449,7 +9449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>105</v>
       </c>
@@ -9517,7 +9517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>107</v>
       </c>
@@ -9585,7 +9585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>110</v>
       </c>
@@ -9653,7 +9653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>111</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>112</v>
       </c>
@@ -9789,7 +9789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>113</v>
       </c>
@@ -9857,7 +9857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>116</v>
       </c>
@@ -9925,7 +9925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>132</v>
       </c>
@@ -9947,12 +9947,12 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="14" max="14" width="9.140625" style="1"/>
+    <col min="14" max="14" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>154</v>
       </c>
@@ -9996,7 +9996,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10040,7 +10040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -10084,7 +10084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -10128,7 +10128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10216,7 +10216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10260,7 +10260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -10304,7 +10304,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -10348,7 +10348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -10392,7 +10392,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4</v>
       </c>
@@ -10436,7 +10436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5</v>
       </c>
@@ -10480,7 +10480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -10524,7 +10524,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -10568,7 +10568,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3</v>
       </c>
@@ -10612,7 +10612,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>7</v>
       </c>
@@ -10656,7 +10656,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>11</v>
       </c>
@@ -10700,7 +10700,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>12</v>
       </c>
@@ -10744,7 +10744,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>13</v>
       </c>
@@ -10788,7 +10788,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>14</v>
       </c>
@@ -10832,7 +10832,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>12</v>
       </c>
@@ -10876,7 +10876,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>15</v>
       </c>
@@ -10920,7 +10920,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>16</v>
       </c>
@@ -10964,7 +10964,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>17</v>
       </c>
@@ -11008,7 +11008,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>18</v>
       </c>
@@ -11052,7 +11052,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>19</v>
       </c>
@@ -11096,7 +11096,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>15</v>
       </c>
@@ -11140,7 +11140,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>20</v>
       </c>
@@ -11184,7 +11184,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>21</v>
       </c>
@@ -11228,7 +11228,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>22</v>
       </c>
@@ -11272,7 +11272,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>23</v>
       </c>
@@ -11316,7 +11316,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>23</v>
       </c>
@@ -11360,7 +11360,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>26</v>
       </c>
@@ -11404,7 +11404,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>25</v>
       </c>
@@ -11448,7 +11448,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>27</v>
       </c>
@@ -11492,7 +11492,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>28</v>
       </c>
@@ -11536,7 +11536,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>30</v>
       </c>
@@ -11580,7 +11580,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>8</v>
       </c>
@@ -11624,7 +11624,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>26</v>
       </c>
@@ -11668,7 +11668,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>17</v>
       </c>
@@ -11712,7 +11712,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>29</v>
       </c>
@@ -11756,7 +11756,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>23</v>
       </c>
@@ -11800,7 +11800,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>31</v>
       </c>
@@ -11844,7 +11844,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>27</v>
       </c>
@@ -11888,7 +11888,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>15</v>
       </c>
@@ -11932,7 +11932,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>19</v>
       </c>
@@ -11976,7 +11976,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>35</v>
       </c>
@@ -12020,7 +12020,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>35</v>
       </c>
@@ -12064,7 +12064,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>33</v>
       </c>
@@ -12108,7 +12108,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>34</v>
       </c>
@@ -12152,7 +12152,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>34</v>
       </c>
@@ -12196,7 +12196,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>38</v>
       </c>
@@ -12240,7 +12240,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>37</v>
       </c>
@@ -12284,7 +12284,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>37</v>
       </c>
@@ -12328,7 +12328,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>30</v>
       </c>
@@ -12372,7 +12372,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>39</v>
       </c>
@@ -12416,7 +12416,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>40</v>
       </c>
@@ -12460,7 +12460,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>40</v>
       </c>
@@ -12504,7 +12504,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>41</v>
       </c>
@@ -12548,7 +12548,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>43</v>
       </c>
@@ -12592,7 +12592,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>34</v>
       </c>
@@ -12636,7 +12636,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>44</v>
       </c>
@@ -12680,7 +12680,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>45</v>
       </c>
@@ -12724,7 +12724,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>46</v>
       </c>
@@ -12768,7 +12768,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>46</v>
       </c>
@@ -12812,7 +12812,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>47</v>
       </c>
@@ -12856,7 +12856,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>42</v>
       </c>
@@ -12900,7 +12900,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>42</v>
       </c>
@@ -12944,7 +12944,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>45</v>
       </c>
@@ -12988,7 +12988,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>48</v>
       </c>
@@ -13032,7 +13032,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>49</v>
       </c>
@@ -13076,7 +13076,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>49</v>
       </c>
@@ -13120,7 +13120,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>51</v>
       </c>
@@ -13164,7 +13164,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>52</v>
       </c>
@@ -13208,7 +13208,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>53</v>
       </c>
@@ -13252,7 +13252,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>49</v>
       </c>
@@ -13296,7 +13296,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>49</v>
       </c>
@@ -13340,7 +13340,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>54</v>
       </c>
@@ -13384,7 +13384,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>54</v>
       </c>
@@ -13428,7 +13428,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>55</v>
       </c>
@@ -13472,7 +13472,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>56</v>
       </c>
@@ -13516,7 +13516,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>50</v>
       </c>
@@ -13560,7 +13560,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>56</v>
       </c>
@@ -13604,7 +13604,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>51</v>
       </c>
@@ -13648,7 +13648,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>54</v>
       </c>
@@ -13692,7 +13692,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>56</v>
       </c>
@@ -13736,7 +13736,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>56</v>
       </c>
@@ -13780,7 +13780,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>55</v>
       </c>
@@ -13824,7 +13824,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>59</v>
       </c>
@@ -13868,7 +13868,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>59</v>
       </c>
@@ -13912,7 +13912,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>60</v>
       </c>
@@ -13956,7 +13956,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>60</v>
       </c>
@@ -14000,7 +14000,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>61</v>
       </c>
@@ -14044,7 +14044,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>63</v>
       </c>
@@ -14088,7 +14088,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>63</v>
       </c>
@@ -14132,7 +14132,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>64</v>
       </c>
@@ -14176,7 +14176,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>38</v>
       </c>
@@ -14220,7 +14220,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>64</v>
       </c>
@@ -14264,7 +14264,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>49</v>
       </c>
@@ -14308,7 +14308,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>49</v>
       </c>
@@ -14352,7 +14352,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>62</v>
       </c>
@@ -14396,7 +14396,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>62</v>
       </c>
@@ -14440,7 +14440,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>65</v>
       </c>
@@ -14484,7 +14484,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>66</v>
       </c>
@@ -14528,7 +14528,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>65</v>
       </c>
@@ -14572,7 +14572,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>47</v>
       </c>
@@ -14616,7 +14616,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>49</v>
       </c>
@@ -14660,7 +14660,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>68</v>
       </c>
@@ -14704,7 +14704,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>69</v>
       </c>
@@ -14748,7 +14748,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>24</v>
       </c>
@@ -14792,7 +14792,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>70</v>
       </c>
@@ -14836,7 +14836,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>24</v>
       </c>
@@ -14880,7 +14880,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>71</v>
       </c>
@@ -14924,7 +14924,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>71</v>
       </c>
@@ -14968,7 +14968,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>70</v>
       </c>
@@ -15012,7 +15012,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>70</v>
       </c>
@@ -15056,7 +15056,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>69</v>
       </c>
@@ -15100,7 +15100,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>74</v>
       </c>
@@ -15144,7 +15144,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>76</v>
       </c>
@@ -15188,7 +15188,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>69</v>
       </c>
@@ -15232,7 +15232,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>75</v>
       </c>
@@ -15276,7 +15276,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>77</v>
       </c>
@@ -15320,7 +15320,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>78</v>
       </c>
@@ -15364,7 +15364,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>77</v>
       </c>
@@ -15408,7 +15408,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>77</v>
       </c>
@@ -15452,7 +15452,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>79</v>
       </c>
@@ -15496,7 +15496,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>68</v>
       </c>
@@ -15540,7 +15540,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>81</v>
       </c>
@@ -15584,7 +15584,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>77</v>
       </c>
@@ -15628,7 +15628,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>82</v>
       </c>
@@ -15672,7 +15672,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>83</v>
       </c>
@@ -15716,7 +15716,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>83</v>
       </c>
@@ -15760,7 +15760,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>84</v>
       </c>
@@ -15804,7 +15804,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>85</v>
       </c>
@@ -15848,7 +15848,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>86</v>
       </c>
@@ -15892,7 +15892,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>85</v>
       </c>
@@ -15936,7 +15936,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>85</v>
       </c>
@@ -15980,7 +15980,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>88</v>
       </c>
@@ -16024,7 +16024,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>89</v>
       </c>
@@ -16068,7 +16068,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>89</v>
       </c>
@@ -16112,7 +16112,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>90</v>
       </c>
@@ -16156,7 +16156,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>89</v>
       </c>
@@ -16200,7 +16200,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>89</v>
       </c>
@@ -16244,7 +16244,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>91</v>
       </c>
@@ -16288,7 +16288,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>92</v>
       </c>
@@ -16332,7 +16332,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>92</v>
       </c>
@@ -16376,7 +16376,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>93</v>
       </c>
@@ -16420,7 +16420,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>94</v>
       </c>
@@ -16464,7 +16464,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>80</v>
       </c>
@@ -16508,7 +16508,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>82</v>
       </c>
@@ -16552,7 +16552,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>94</v>
       </c>
@@ -16596,7 +16596,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>80</v>
       </c>
@@ -16640,7 +16640,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>80</v>
       </c>
@@ -16684,7 +16684,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>80</v>
       </c>
@@ -16728,7 +16728,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>92</v>
       </c>
@@ -16772,7 +16772,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>94</v>
       </c>
@@ -16816,7 +16816,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>95</v>
       </c>
@@ -16860,7 +16860,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>96</v>
       </c>
@@ -16904,7 +16904,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>98</v>
       </c>
@@ -16948,7 +16948,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>99</v>
       </c>
@@ -16992,7 +16992,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>100</v>
       </c>
@@ -17036,7 +17036,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>92</v>
       </c>
@@ -17080,7 +17080,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>101</v>
       </c>
@@ -17124,7 +17124,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>100</v>
       </c>
@@ -17168,7 +17168,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>100</v>
       </c>
@@ -17212,7 +17212,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>103</v>
       </c>
@@ -17256,7 +17256,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>103</v>
       </c>
@@ -17300,7 +17300,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>100</v>
       </c>
@@ -17344,7 +17344,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>104</v>
       </c>
@@ -17388,7 +17388,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>105</v>
       </c>
@@ -17432,7 +17432,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>105</v>
       </c>
@@ -17476,7 +17476,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>105</v>
       </c>
@@ -17520,7 +17520,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>106</v>
       </c>
@@ -17564,7 +17564,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>108</v>
       </c>
@@ -17608,7 +17608,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>103</v>
       </c>
@@ -17652,7 +17652,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>109</v>
       </c>
@@ -17696,7 +17696,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>110</v>
       </c>
@@ -17740,7 +17740,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>110</v>
       </c>
@@ -17784,7 +17784,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>17</v>
       </c>
@@ -17828,7 +17828,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>32</v>
       </c>
@@ -17872,7 +17872,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>32</v>
       </c>
@@ -17916,7 +17916,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>27</v>
       </c>
@@ -17960,7 +17960,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>114</v>
       </c>
@@ -18004,7 +18004,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>68</v>
       </c>
@@ -18048,7 +18048,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>12</v>
       </c>
@@ -18092,7 +18092,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>75</v>
       </c>
@@ -18136,7 +18136,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>76</v>
       </c>
@@ -18346,13 +18346,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{545ED75A-CDDB-4115-AA72-6FA629AB2986}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{545ED75A-CDDB-4115-AA72-6FA629AB2986}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="abf4bfbe-3fcd-42bf-9085-ac1890f53a39"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4EAC634-59AB-429D-965E-177D4E7DF2B4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4EAC634-59AB-429D-965E-177D4E7DF2B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA165CE8-37D6-4234-A4D1-90C0E2C31C33}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA165CE8-37D6-4234-A4D1-90C0E2C31C33}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>